--- a/biology/Médecine/Cécile_Vogt-Mugnier/Cécile_Vogt-Mugnier.xlsx
+++ b/biology/Médecine/Cécile_Vogt-Mugnier/Cécile_Vogt-Mugnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Vogt-Mugnier</t>
+          <t>Cécile_Vogt-Mugnier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile Vogt-Mugnier, née le 27 mars 1875 à Annecy et morte le 4 mai 1962 à Cambridge (Angleterre), est une neurologue et neuropathologiste franco-allemande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Vogt-Mugnier</t>
+          <t>Cécile_Vogt-Mugnier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Sa famille est originaire de Haute-Savoie. Elle perd son père à l'âge de deux ans et dès son jeune âge, elle fait preuve d'un caractère indépendant et non conventionnel, ce qui s'était déjà vu dans sa famille puisque sa mère qui avait rompu avec l'Église, avait refusé d'être son témoin de confirmation, se contentant de l'escorter jusqu'à la porte de la cathédrale.
-Formation
-Cécile Mugnier fait partie du groupe restreint des premières étudiantes à être admises à la faculté de médecine au début du XXe siècle. Elle est l'élève de Pierre Marie à Bicêtre où elle fait la connaissance de son futur mari, Oskar Vogt. Ce dernier était venu travailler à Paris avec Jules et Augusta Dejerine. 
-Carrière médicale
-En 1899, Cécile Mugnier épouse Oskar Vogt et le couple déménage à Berlin pour y fonder un institut de recherches neurologiques, la Neurologische Zentralstation qu'ils financent grâce à leur pratique privée. Très vite, Cécile Vogt-Mugnier s'impose comme une scientifique de premier plan, au même titre que ses contemporaines Marie Curie, Augusta Dejerine-Klumpke et Marie Nageotte-Wilbouchewitch.
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa famille est originaire de Haute-Savoie. Elle perd son père à l'âge de deux ans et dès son jeune âge, elle fait preuve d'un caractère indépendant et non conventionnel, ce qui s'était déjà vu dans sa famille puisque sa mère qui avait rompu avec l'Église, avait refusé d'être son témoin de confirmation, se contentant de l'escorter jusqu'à la porte de la cathédrale.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Vogt-Mugnier</t>
+          <t>Cécile_Vogt-Mugnier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +557,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cécile Mugnier fait partie du groupe restreint des premières étudiantes à être admises à la faculté de médecine au début du XXe siècle. Elle est l'élève de Pierre Marie à Bicêtre où elle fait la connaissance de son futur mari, Oskar Vogt. Ce dernier était venu travailler à Paris avec Jules et Augusta Dejerine. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cécile_Vogt-Mugnier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Vogt-Mugnier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1899, Cécile Mugnier épouse Oskar Vogt et le couple déménage à Berlin pour y fonder un institut de recherches neurologiques, la Neurologische Zentralstation qu'ils financent grâce à leur pratique privée. Très vite, Cécile Vogt-Mugnier s'impose comme une scientifique de premier plan, au même titre que ses contemporaines Marie Curie, Augusta Dejerine-Klumpke et Marie Nageotte-Wilbouchewitch.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cécile_Vogt-Mugnier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Vogt-Mugnier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Pour approfondir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
